--- a/src/test/resources/TestData/TestDataSelenium.xlsx
+++ b/src/test/resources/TestData/TestDataSelenium.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anil.basudkar\eclipse-workspace\Team1_CodeBusters_Phase2-LMS-UI_Hackathon\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1DEEDF-9080-4431-8E68-EFC8749DEF68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1C3740-6895-4434-B55F-EDD5F579FDE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="110">
   <si>
     <t>username</t>
   </si>
@@ -331,6 +331,33 @@
   </si>
   <si>
     <t>adjhajf@gmail.com</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>ProgramName</t>
+  </si>
+  <si>
+    <t>ProgramDescription</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>KB100</t>
+  </si>
+  <si>
+    <t>KB101</t>
+  </si>
+  <si>
+    <t>KB102</t>
+  </si>
+  <si>
+    <t>KB103</t>
+  </si>
+  <si>
+    <t>KB105</t>
   </si>
 </sst>
 </file>
@@ -357,14 +384,14 @@
       <sz val="10"/>
       <color rgb="FF0000C0"/>
       <name val="Courier New"/>
-      <charset val="1"/>
+      <family val="3"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0066CC"/>
       <name val="Courier New"/>
-      <charset val="1"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -684,7 +711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
@@ -741,10 +768,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42585CB-FB51-491F-9ACD-2587FFF0DBEA}">
-  <dimension ref="D2"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -752,8 +779,95 @@
     <col min="4" max="4" width="15.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D2" s="1"/>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>109</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3431,4 +3545,10 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{d9290083-bd2f-48a2-8ac5-09a524b17d15}" enabled="1" method="Privileged" siteId="{b9fec68c-c92d-461e-9a97-3d03a0f18b82}" contentBits="1" removed="0"/>
+</clbl:labelList>
 </file>